--- a/BaroAngEditor/BaroAngEditor/mods/正则.xlsx
+++ b/BaroAngEditor/BaroAngEditor/mods/正则.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\github\GameTools\BaroAngEditor\BaroAngEditor\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub20211201\GameTools\BaroAngEditor\BaroAngEditor\mods\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19692" windowHeight="8832"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19695" windowHeight="8835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,18 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>^(12[7-9][0-9]|13[0-5][0-9]|23[4-5][0-9]|32[1-9][0-9]|33[0-5][0-9]|200[0-9]|300[0-9])$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^(10[0-9][0-9]|11[0-7][0-9]|20[1-9][0-9]|21[0-7][0-9]|30[1-9][0-9]|31[0-6][0-9])$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^(11[8-9][0-9]|12[0-6][0-9]|21[8-9][0-9]|22[0-9][0-9]|23[0-3][0-9]|31[7-9][0-9]|320[0-9])$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>step</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,6 +97,15 @@
   <si>
     <t>^(11[8-9][0-9]|12[0-9][0-9]|13[0-5][0-9]|21[8-9][0-9]|22[0-9][0-9]|23[0-5][0-9])$</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^(10[0-9][0-9]|11[0-7][0-9]|20[3-9][0-9]|21[0-7][0-9]|30[1-9][0-9]|31[0-5][0-9])$</t>
+  </si>
+  <si>
+    <t>^(11[8-9][0-9]|12[0-6][0-9]|21[8-9][0-9]|22[0-9][0-9]|23[0-3][0-9]|31[6-9][0-9]|320[0-9])$</t>
+  </si>
+  <si>
+    <t>^(12[7-9][0-9]|13[0-5][0-9]|23[4-5][0-9]|32[1-9][0-9]|33[0-5][0-9])$</t>
   </si>
 </sst>
 </file>
@@ -191,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -217,15 +214,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -238,7 +226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -260,9 +248,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -287,44 +272,59 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,60 +606,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:M10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="14" max="14" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="13" customFormat="1">
+    <row r="1" spans="1:33" s="12" customFormat="1">
       <c r="A1" s="3"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="19" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="19" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-    </row>
-    <row r="2" spans="1:33" s="13" customFormat="1">
+      <c r="K1" s="24"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+    </row>
+    <row r="2" spans="1:33" s="12" customFormat="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -692,67 +692,68 @@
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-    </row>
-    <row r="3" spans="1:33" s="9" customFormat="1">
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+    </row>
+    <row r="3" spans="1:33" s="8" customFormat="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <f>B2+$A2*1000</f>
         <v>1000</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <f>C2+$A2*1000</f>
         <v>1179</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14">
         <f>F2+$A2*1000</f>
         <v>1180</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <f>G2+$A2*1000</f>
         <v>1269</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14">
         <f>J2+$A2*1000</f>
         <v>1270</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <f>K2+$A2*1000</f>
         <v>1359</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="10"/>
-    </row>
-    <row r="4" spans="1:33" s="13" customFormat="1">
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:33" s="12" customFormat="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>10</v>
+        <f>M4+1</f>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
         <f>F4-1</f>
@@ -779,70 +780,71 @@
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>9</v>
-      </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-    </row>
-    <row r="5" spans="1:33" s="9" customFormat="1">
+        <f>50-(K4-J4+1)-1</f>
+        <v>29</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+    </row>
+    <row r="5" spans="1:33" s="8" customFormat="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <f>B4+$A4*1000</f>
-        <v>2010</v>
-      </c>
-      <c r="C5" s="15">
+        <v>2030</v>
+      </c>
+      <c r="C5" s="14">
         <f>C4+$A4*1000</f>
         <v>2179</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14">
         <f>F4+$A4*1000</f>
         <v>2180</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <f>G4+$A4*1000</f>
         <v>2339</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15">
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14">
         <f t="shared" ref="J5:L5" si="0">J4+$A4*1000</f>
         <v>2340</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <f t="shared" ref="K5:M5" si="1">K4+$A4*1000</f>
         <v>2359</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="14">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="14">
         <f t="shared" si="1"/>
-        <v>2009</v>
-      </c>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="1:33" s="13" customFormat="1">
+        <v>2029</v>
+      </c>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:33" s="12" customFormat="1">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -852,12 +854,13 @@
       </c>
       <c r="C6" s="1">
         <f>F6-1</f>
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2">
-        <v>170</v>
+        <f>G6+1-50</f>
+        <v>160</v>
       </c>
       <c r="G6" s="2">
         <f>J6-1</f>
@@ -879,84 +882,91 @@
       <c r="M6" s="1">
         <v>9</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-    </row>
-    <row r="7" spans="1:33" s="9" customFormat="1">
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+    </row>
+    <row r="7" spans="1:33" s="8" customFormat="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <f>B6+$A6*1000</f>
         <v>3010</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <f>C6+$A6*1000</f>
-        <v>3169</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15">
+        <v>3159</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14">
         <f t="shared" ref="F7" si="2">F6+$A6*1000</f>
-        <v>3170</v>
-      </c>
-      <c r="G7" s="15">
+        <v>3160</v>
+      </c>
+      <c r="G7" s="14">
         <f t="shared" ref="G7" si="3">G6+$A6*1000</f>
         <v>3209</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15">
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14">
         <f t="shared" ref="J7" si="4">J6+$A6*1000</f>
         <v>3210</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <f t="shared" ref="K7" si="5">K6+$A6*1000</f>
         <v>3359</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="14">
         <f t="shared" ref="L7" si="6">L6+$A6*1000</f>
         <v>3000</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="14">
         <f t="shared" ref="M7" si="7">M6+$A6*1000</f>
         <v>3009</v>
       </c>
-      <c r="N7" s="10"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="4"/>
-      <c r="B8" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="8"/>
+      <c r="B8" s="27" t="str">
+        <f>TEXT(B3,"@")&amp;","&amp;TEXT(C3,"@")</f>
+        <v>1000,1179</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27" t="str">
+        <f t="shared" ref="C8:J8" si="8">TEXT(F3,"@")&amp;","&amp;TEXT(G3,"@")</f>
+        <v>1180,1269</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v>1270,1359</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="7"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -978,20 +988,27 @@
       <c r="AG8" s="3"/>
     </row>
     <row r="9" spans="1:33">
-      <c r="B9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
+      <c r="B9" s="27" t="str">
+        <f>TEXT(B5,"@")&amp;","&amp;TEXT(C5,"@")</f>
+        <v>2030,2179</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27" t="str">
+        <f t="shared" ref="C9:J9" si="9">TEXT(F5,"@")&amp;","&amp;TEXT(G5,"@")</f>
+        <v>2180,2339</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27" t="str">
+        <f t="shared" si="9"/>
+        <v>2340,2359</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="3"/>
@@ -1014,20 +1031,27 @@
       <c r="AG9" s="3"/>
     </row>
     <row r="10" spans="1:33">
-      <c r="B10" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="B10" s="27" t="str">
+        <f>TEXT(B7,"@")&amp;","&amp;TEXT(C7,"@")</f>
+        <v>3010,3159</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27" t="str">
+        <f t="shared" ref="C10:J10" si="10">TEXT(F7,"@")&amp;","&amp;TEXT(G7,"@")</f>
+        <v>3160,3209</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v>3210,3359</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="3"/>
@@ -1050,29 +1074,66 @@
       <c r="AG10" s="3"/>
     </row>
     <row r="11" spans="1:33">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="B11" s="32" t="str">
+        <f>B8&amp;","&amp;B9&amp;","&amp;B10</f>
+        <v>1000,1179,2030,2179,3010,3159</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32" t="str">
+        <f t="shared" ref="C11:J11" si="11">F8&amp;","&amp;F9&amp;","&amp;F10</f>
+        <v>1180,1269,2180,2339,3160,3209</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v>1270,1359,2340,2359,3210,3359</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:33">
-      <c r="B12" s="7"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="B13" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="B8:M8"/>
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="J1:K1"/>
@@ -1091,39 +1152,39 @@
       <selection activeCell="A10" sqref="A10:R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="3">
@@ -1132,171 +1193,171 @@
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="15">
         <v>0</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="15">
         <v>179</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15">
         <v>180</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="15">
         <v>239</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15">
         <v>240</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="15">
         <v>299</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21">
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15">
         <v>300</v>
       </c>
-      <c r="P2" s="21">
+      <c r="P2" s="15">
         <v>359</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="21">
+      <c r="C3" s="15">
         <f>C2+$B2*$A2</f>
         <v>1000</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="15">
         <f>D2+$B2*$A2</f>
         <v>1179</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15">
         <f t="shared" ref="G3:P3" si="0">G2+$B2*$A2</f>
         <v>1180</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="15">
         <f t="shared" si="0"/>
         <v>1239</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15">
         <f t="shared" si="0"/>
         <v>1240</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="15">
         <f t="shared" si="0"/>
         <v>1299</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21">
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15">
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="15">
         <f t="shared" si="0"/>
         <v>1359</v>
       </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3"/>
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="16">
         <v>30</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="16">
         <v>89</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16">
         <v>90</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="16">
         <v>269</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22">
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16">
         <v>270</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="16">
         <v>329</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22">
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16">
         <v>330</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="16">
         <v>359</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="Q4" s="16">
         <v>0</v>
       </c>
-      <c r="R4" s="22">
+      <c r="R4" s="16">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="22">
+      <c r="C5" s="16">
         <f>C4+$B4*$A2</f>
         <v>2030</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="16">
         <f t="shared" ref="D5:R5" si="1">D4+$B4*$A2</f>
         <v>2089</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16">
         <f t="shared" si="1"/>
         <v>2090</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="16">
         <f t="shared" si="1"/>
         <v>2269</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22">
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16">
         <f t="shared" si="1"/>
         <v>2270</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="16">
         <f t="shared" si="1"/>
         <v>2329</v>
       </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22">
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16">
         <f t="shared" si="1"/>
         <v>2330</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="16">
         <f t="shared" si="1"/>
         <v>2359</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="16">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="16">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
@@ -1388,200 +1449,200 @@
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="17">
         <v>90</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="17">
         <v>149</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17">
         <v>150</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="17">
         <v>209</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23">
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17">
         <v>210</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="17">
         <v>269</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23">
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17">
         <v>270</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="17">
         <v>359</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="17">
         <v>0</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="17">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="23">
+      <c r="C9" s="17">
         <f>C8+$B8*$A2</f>
         <v>4090</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="17">
         <f t="shared" ref="D9:R9" si="3">D8+$B8*$A2</f>
         <v>4149</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17">
         <f t="shared" si="3"/>
         <v>4150</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="17">
         <f t="shared" si="3"/>
         <v>4209</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23">
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17">
         <f t="shared" si="3"/>
         <v>4210</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="17">
         <f t="shared" si="3"/>
         <v>4269</v>
       </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23">
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17">
         <f t="shared" si="3"/>
         <v>4270</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="17">
         <f t="shared" si="3"/>
         <v>4359</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="17">
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="17">
         <f t="shared" si="3"/>
         <v>4089</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+        <v>13</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -1598,168 +1659,163 @@
       <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="17">
         <v>0</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="17">
         <v>179</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23">
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17">
         <v>180</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="17">
         <v>359</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="24">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="18">
         <f>C15+$A15*$B15</f>
         <v>1000</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="18">
         <f t="shared" ref="D16:H16" si="4">D15+$A15*$B15</f>
         <v>1179</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24">
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18">
         <f t="shared" si="4"/>
         <v>1180</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="18">
         <f t="shared" si="4"/>
         <v>1359</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8">
         <v>2</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="21">
         <v>0</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="21">
         <v>179</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27">
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21">
         <v>180</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="21">
         <v>359</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="27">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="21">
         <f>C17+$B17*$A15</f>
         <v>2000</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="21">
         <f t="shared" ref="D18:H18" si="5">D17+$B17*$A15</f>
         <v>2179</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27">
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21">
         <f t="shared" si="5"/>
         <v>2180</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="21">
         <f t="shared" si="5"/>
         <v>2359</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
+      <c r="A19" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
+      <c r="A20" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A12:R12"/>
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="A19:R19"/>
     <mergeCell ref="A20:R20"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
@@ -1767,6 +1823,11 @@
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="A10:R10"/>
     <mergeCell ref="A11:R11"/>
+    <mergeCell ref="A12:R12"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="A19:R19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BaroAngEditor/BaroAngEditor/mods/正则.xlsx
+++ b/BaroAngEditor/BaroAngEditor/mods/正则.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub20211201\GameTools\BaroAngEditor\BaroAngEditor\mods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\github\GameTools\BaroAngEditor\BaroAngEditor\mods\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19695" windowHeight="8835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19692" windowHeight="8832"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="2" sheetId="3" r:id="rId1"/>
+    <sheet name="3" sheetId="1" r:id="rId2"/>
+    <sheet name="4" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,19 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
-  <si>
-    <t>output 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>step</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,35 +36,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>output1</t>
+    <t>RegEx2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>output2</t>
+    <t>RegEx1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>output3</t>
+    <t>RegEx1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>output4</t>
+    <t>RegEx2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>^(10[0-9][0-9]|11[0-7][0-9]|20[3-8][0-9]|30[6-9][0-9]|31[0-1][0-9]|409[0-9]|41[0-4][0-9])$</t>
+    <t>RegEx3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>^(11[8-9][0-9]|12[0-3][0-9]|209[0-9]|21[0-9][0-9]|22[0-6][0-9]|31[2-7][0-9]|41[5-9][0-9]|420[0-9])$</t>
+    <t>step</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>^(12[4-9][0-9]|22[7-9][0-9]|23[0-2][0-9]|31[8-9][0-9]|32[0-9][0-9]|33[0-5][0-9]|42[1-6][0-9])$</t>
+    <t>RegEx3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>^(13[0-5][0-9]|23[3-5][0-9]|2030|20[0-2][0-9]|30[0-5][0-9]|42[7-9][0-9]|43[0-5][0-9]|40[0-8][0-9])$</t>
+    <t>RegEx4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -83,36 +72,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>output1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>^(10[0-9][0-9]|11[0-7][0-9]|20[0-9][0-9]|21[0-7][0-9])$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>^(11[8-9][0-9]|12[0-9][0-9]|13[0-5][0-9]|21[8-9][0-9]|22[0-9][0-9]|23[0-5][0-9])$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>^(10[0-9][0-9]|11[0-7][0-9]|20[3-9][0-9]|21[0-7][0-9]|30[1-9][0-9]|31[0-5][0-9])$</t>
+    <t>^(10[0-9][0-9]|11[0-7][0-9]|20[3-8][0-9]|30[6-9][0-9]|31[0-1][0-9]|409[0-9]|41[0-4][0-9])$</t>
   </si>
   <si>
-    <t>^(11[8-9][0-9]|12[0-6][0-9]|21[8-9][0-9]|22[0-9][0-9]|23[0-3][0-9]|31[6-9][0-9]|320[0-9])$</t>
+    <t>^(11[8-9][0-9]|12[0-3][0-9]|209[0-9]|21[0-9][0-9]|22[0-6][0-9]|31[2-7][0-9]|41[5-9][0-9]|420[0-9])$</t>
   </si>
   <si>
-    <t>^(12[7-9][0-9]|13[0-5][0-9]|23[4-5][0-9]|32[1-9][0-9]|33[0-5][0-9])$</t>
+    <t>^(12[4-9][0-9]|22[7-9][0-9]|23[0-2][0-9]|31[8-9][0-9]|32[0-9][0-9]|33[0-5][0-9]|42[1-6][0-9])$</t>
+  </si>
+  <si>
+    <t>^(13[0-5][0-9]|23[3-5][0-9]|20[0-2][0-9]|30[0-5][0-9]|42[7-9][0-9]|43[0-5][0-9]|40[0-8][0-9])$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,8 +125,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,8 +177,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -220,13 +222,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,9 +318,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -293,38 +327,47 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,40 +649,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="26">
+        <v>0</v>
+      </c>
+      <c r="D2" s="26">
+        <v>179</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="25">
+        <f>D2+1</f>
+        <v>180</v>
+      </c>
+      <c r="H2" s="25">
+        <f>MOD(C2-1,360)</f>
+        <v>359</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="22">
+        <f>C2+$A2*$B2</f>
+        <v>1000</v>
+      </c>
+      <c r="D3" s="22">
+        <f t="shared" ref="D3:J3" si="0">D2+$A2*$B2</f>
+        <v>1179</v>
+      </c>
+      <c r="E3" s="22">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F3" s="22">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="G3" s="22">
+        <f t="shared" si="0"/>
+        <v>1180</v>
+      </c>
+      <c r="H3" s="22">
+        <f t="shared" si="0"/>
+        <v>1359</v>
+      </c>
+      <c r="I3" s="22">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="J3" s="22">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="20">
+        <f>MOD(H4+1,360)+J4+QUOTIENT(H4+J4,360)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="20">
+        <f>G4-1</f>
+        <v>179</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="27">
+        <v>180</v>
+      </c>
+      <c r="H4" s="27">
+        <v>359</v>
+      </c>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="23">
+        <f>C4+$B4*$A2</f>
+        <v>2000</v>
+      </c>
+      <c r="D5" s="23">
+        <f t="shared" ref="D5:J5" si="1">D4+$B4*$A2</f>
+        <v>2179</v>
+      </c>
+      <c r="E5" s="23">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="F5" s="23">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="G5" s="23">
+        <f t="shared" si="1"/>
+        <v>2180</v>
+      </c>
+      <c r="H5" s="23">
+        <f t="shared" si="1"/>
+        <v>2359</v>
+      </c>
+      <c r="I5" s="23">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="J5" s="23">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="C6" t="str">
+        <f t="shared" ref="C6:I6" si="2">TEXT(C3,"@")&amp;","&amp;TEXT(D3,"@")</f>
+        <v>1000,1179</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="2"/>
+        <v>1000,1000</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>1180,1359</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>1000,1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" t="str">
+        <f t="shared" ref="C7:I7" si="3">TEXT(C5,"@")&amp;","&amp;TEXT(D5,"@")</f>
+        <v>2000,2179</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="3"/>
+        <v>2000,2000</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="3"/>
+        <v>2180,2359</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="3"/>
+        <v>2000,2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="34.799999999999997" customHeight="1">
+      <c r="C8" s="29" t="str">
+        <f>C6&amp;","&amp;E6&amp;","&amp;C7&amp;","&amp;E7&amp;"|"&amp;G6&amp;","&amp;I6&amp;","&amp;G7&amp;","&amp;I7</f>
+        <v>1000,1179,1000,1000,2000,2179,2000,2000|1180,1359,1000,1000,2180,2359,2000,2000</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="C8:J8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="12" customFormat="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="13"/>
+    <row r="1" spans="1:34" s="12" customFormat="1">
+      <c r="A1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="34"/>
       <c r="M1" s="13"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="11"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="10"/>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
@@ -658,42 +927,45 @@
       <c r="AE1" s="11"/>
       <c r="AF1" s="11"/>
       <c r="AG1" s="11"/>
-    </row>
-    <row r="2" spans="1:33" s="12" customFormat="1">
-      <c r="A2" s="3">
+      <c r="AH1" s="11"/>
+    </row>
+    <row r="2" spans="1:34" s="12" customFormat="1">
+      <c r="A2" s="21">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <f>180-1</f>
         <v>179</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="2">
-        <f>C2+1</f>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2">
+        <f>D2+1</f>
         <v>180</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <f>270-1</f>
         <v>269</v>
       </c>
-      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="1">
-        <f>G2+1</f>
+      <c r="J2" s="2"/>
+      <c r="K2" s="1">
+        <f>H2+1</f>
         <v>270</v>
       </c>
-      <c r="K2" s="1">
-        <f>MOD(B2-1,360)</f>
+      <c r="L2" s="1">
+        <f>MOD(C2-1,360)</f>
         <v>359</v>
       </c>
-      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="10"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
@@ -712,79 +984,98 @@
       <c r="AE2" s="11"/>
       <c r="AF2" s="11"/>
       <c r="AG2" s="11"/>
-    </row>
-    <row r="3" spans="1:33" s="8" customFormat="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="14">
-        <f>B2+$A2*1000</f>
-        <v>1000</v>
-      </c>
+      <c r="AH2" s="11"/>
+    </row>
+    <row r="3" spans="1:34" s="8" customFormat="1">
+      <c r="B3" s="3"/>
       <c r="C3" s="14">
-        <f>C2+$A2*1000</f>
+        <f>C2+$B2*$A2</f>
+        <v>1000</v>
+      </c>
+      <c r="D3" s="14">
+        <f t="shared" ref="D3:N3" si="0">D2+$B2*$A2</f>
         <v>1179</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="E3" s="14">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
       <c r="F3" s="14">
-        <f>F2+$A2*1000</f>
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="G3" s="14">
+        <f t="shared" si="0"/>
         <v>1180</v>
       </c>
-      <c r="G3" s="14">
-        <f>G2+$A2*1000</f>
+      <c r="H3" s="14">
+        <f t="shared" si="0"/>
         <v>1269</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="I3" s="14">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
       <c r="J3" s="14">
-        <f>J2+$A2*1000</f>
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="K3" s="14">
+        <f t="shared" si="0"/>
         <v>1270</v>
       </c>
-      <c r="K3" s="14">
-        <f>K2+$A2*1000</f>
+      <c r="L3" s="14">
+        <f t="shared" si="0"/>
         <v>1359</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="9"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1">
-      <c r="A4" s="3">
+      <c r="M3" s="14">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="N3" s="14">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <f>M4+1</f>
+      <c r="C4" s="1">
+        <f>N4+1</f>
         <v>30</v>
       </c>
-      <c r="C4" s="1">
-        <f>F4-1</f>
+      <c r="D4" s="1">
+        <f>G4-1</f>
         <v>179</v>
       </c>
-      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="2">
+      <c r="F4" s="1"/>
+      <c r="G4" s="2">
         <v>180</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>339</v>
       </c>
-      <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="1">
-        <f>G4+1</f>
+      <c r="J4" s="2"/>
+      <c r="K4" s="1">
+        <f>H4+1</f>
         <v>340</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>359</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>0</v>
       </c>
-      <c r="M4" s="1">
-        <f>50-(K4-J4+1)-1</f>
+      <c r="N4" s="1">
+        <f>50-(L4-K4+1)-1</f>
         <v>29</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="11"/>
+      <c r="O4" s="10"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
@@ -803,87 +1094,100 @@
       <c r="AE4" s="11"/>
       <c r="AF4" s="11"/>
       <c r="AG4" s="11"/>
-    </row>
-    <row r="5" spans="1:33" s="8" customFormat="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="14">
-        <f>B4+$A4*1000</f>
+      <c r="AH4" s="11"/>
+    </row>
+    <row r="5" spans="1:34" s="8" customFormat="1">
+      <c r="B5" s="3"/>
+      <c r="C5" s="14">
+        <f>C4+$B4*$A2</f>
         <v>2030</v>
       </c>
-      <c r="C5" s="14">
-        <f>C4+$A4*1000</f>
+      <c r="D5" s="14">
+        <f>D4+$B4*$A2</f>
         <v>2179</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="E5" s="14">
+        <f t="shared" ref="E5:N5" si="1">E4+$B4*$A2</f>
+        <v>2000</v>
+      </c>
       <c r="F5" s="14">
-        <f>F4+$A4*1000</f>
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="G5" s="14">
+        <f t="shared" si="1"/>
         <v>2180</v>
       </c>
-      <c r="G5" s="14">
-        <f>G4+$A4*1000</f>
+      <c r="H5" s="14">
+        <f t="shared" si="1"/>
         <v>2339</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="I5" s="14">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
       <c r="J5" s="14">
-        <f t="shared" ref="J5:L5" si="0">J4+$A4*1000</f>
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K5" s="14">
+        <f t="shared" si="1"/>
         <v>2340</v>
       </c>
-      <c r="K5" s="14">
-        <f t="shared" ref="K5:M5" si="1">K4+$A4*1000</f>
+      <c r="L5" s="14">
+        <f t="shared" si="1"/>
         <v>2359</v>
       </c>
-      <c r="L5" s="14">
-        <f t="shared" si="0"/>
+      <c r="M5" s="14">
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="M5" s="14">
+      <c r="N5" s="14">
         <f t="shared" si="1"/>
         <v>2029</v>
       </c>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="1:33" s="12" customFormat="1">
-      <c r="A6" s="3">
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:34" s="12" customFormat="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
-        <f>M6+1</f>
+      <c r="C6" s="1">
+        <f>N6+1</f>
         <v>10</v>
       </c>
-      <c r="C6" s="1">
-        <f>F6-1</f>
+      <c r="D6" s="1">
+        <f>G6-1</f>
         <v>159</v>
       </c>
-      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="2">
-        <f>G6+1-50</f>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2">
+        <f>H6+1-50</f>
         <v>160</v>
       </c>
-      <c r="G6" s="2">
-        <f>J6-1</f>
+      <c r="H6" s="2">
+        <f>K6-1</f>
         <v>209</v>
       </c>
-      <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="1">
+      <c r="J6" s="2"/>
+      <c r="K6" s="1">
         <f>210</f>
         <v>210</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <f>360-1</f>
         <v>359</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>9</v>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11"/>
+      <c r="O6" s="10"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
@@ -902,72 +1206,94 @@
       <c r="AE6" s="11"/>
       <c r="AF6" s="11"/>
       <c r="AG6" s="11"/>
-    </row>
-    <row r="7" spans="1:33" s="8" customFormat="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="14">
-        <f>B6+$A6*1000</f>
+      <c r="AH6" s="11"/>
+    </row>
+    <row r="7" spans="1:34" s="8" customFormat="1">
+      <c r="B7" s="3"/>
+      <c r="C7" s="14">
+        <f>C6+$B6*$A2</f>
         <v>3010</v>
       </c>
-      <c r="C7" s="14">
-        <f>C6+$A6*1000</f>
+      <c r="D7" s="14">
+        <f t="shared" ref="D7:N7" si="2">D6+$B6*$A2</f>
         <v>3159</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="E7" s="14">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
       <c r="F7" s="14">
-        <f t="shared" ref="F7" si="2">F6+$A6*1000</f>
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="2"/>
         <v>3160</v>
       </c>
-      <c r="G7" s="14">
-        <f t="shared" ref="G7" si="3">G6+$A6*1000</f>
+      <c r="H7" s="14">
+        <f t="shared" si="2"/>
         <v>3209</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="I7" s="14">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
       <c r="J7" s="14">
-        <f t="shared" ref="J7" si="4">J6+$A6*1000</f>
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="K7" s="14">
+        <f t="shared" si="2"/>
         <v>3210</v>
       </c>
-      <c r="K7" s="14">
-        <f t="shared" ref="K7" si="5">K6+$A6*1000</f>
+      <c r="L7" s="14">
+        <f t="shared" si="2"/>
         <v>3359</v>
       </c>
-      <c r="L7" s="14">
-        <f t="shared" ref="L7" si="6">L6+$A6*1000</f>
+      <c r="M7" s="14">
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="M7" s="14">
-        <f t="shared" ref="M7" si="7">M6+$A6*1000</f>
+      <c r="N7" s="14">
+        <f t="shared" si="2"/>
         <v>3009</v>
       </c>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:33">
-      <c r="A8" s="4"/>
-      <c r="B8" s="27" t="str">
-        <f>TEXT(B3,"@")&amp;","&amp;TEXT(C3,"@")</f>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="32" t="str">
+        <f>TEXT(C3,"@")&amp;","&amp;TEXT(D3,"@")</f>
         <v>1000,1179</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27" t="str">
-        <f t="shared" ref="C8:J8" si="8">TEXT(F3,"@")&amp;","&amp;TEXT(G3,"@")</f>
+      <c r="D8" s="33"/>
+      <c r="E8" s="32" t="str">
+        <f t="shared" ref="E8" si="3">TEXT(E3,"@")&amp;","&amp;TEXT(F3,"@")</f>
+        <v>1000,1000</v>
+      </c>
+      <c r="F8" s="33"/>
+      <c r="G8" s="32" t="str">
+        <f t="shared" ref="G8:K8" si="4">TEXT(G3,"@")&amp;","&amp;TEXT(H3,"@")</f>
         <v>1180,1269</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27" t="str">
-        <f t="shared" si="8"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="32" t="str">
+        <f t="shared" ref="I8" si="5">TEXT(I3,"@")&amp;","&amp;TEXT(J3,"@")</f>
+        <v>1000,1000</v>
+      </c>
+      <c r="J8" s="33"/>
+      <c r="K8" s="32" t="str">
+        <f t="shared" si="4"/>
         <v>1270,1359</v>
       </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="3"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="32" t="str">
+        <f>TEXT(M3,"@")&amp;","&amp;TEXT(N3,"@")</f>
+        <v>1000,1000</v>
+      </c>
+      <c r="N8" s="33"/>
+      <c r="O8" s="7"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -986,32 +1312,42 @@
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
-    </row>
-    <row r="9" spans="1:33">
-      <c r="B9" s="27" t="str">
-        <f>TEXT(B5,"@")&amp;","&amp;TEXT(C5,"@")</f>
+      <c r="AH8" s="3"/>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="3"/>
+      <c r="C9" s="32" t="str">
+        <f>TEXT(C5,"@")&amp;","&amp;TEXT(D5,"@")</f>
         <v>2030,2179</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27" t="str">
-        <f t="shared" ref="C9:J9" si="9">TEXT(F5,"@")&amp;","&amp;TEXT(G5,"@")</f>
+      <c r="D9" s="33"/>
+      <c r="E9" s="32" t="str">
+        <f t="shared" ref="E9" si="6">TEXT(E5,"@")&amp;","&amp;TEXT(F5,"@")</f>
+        <v>2000,2000</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="32" t="str">
+        <f t="shared" ref="G9:K9" si="7">TEXT(G5,"@")&amp;","&amp;TEXT(H5,"@")</f>
         <v>2180,2339</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27" t="str">
-        <f t="shared" si="9"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="32" t="str">
+        <f t="shared" ref="I9" si="8">TEXT(I5,"@")&amp;","&amp;TEXT(J5,"@")</f>
+        <v>2000,2000</v>
+      </c>
+      <c r="J9" s="33"/>
+      <c r="K9" s="32" t="str">
+        <f t="shared" si="7"/>
         <v>2340,2359</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="6"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="32" t="str">
+        <f t="shared" ref="M9" si="9">TEXT(M5,"@")&amp;","&amp;TEXT(N5,"@")</f>
+        <v>2000,2029</v>
+      </c>
+      <c r="N9" s="33"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="3"/>
+      <c r="P9" s="6"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -1029,32 +1365,42 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
-    </row>
-    <row r="10" spans="1:33">
-      <c r="B10" s="27" t="str">
-        <f>TEXT(B7,"@")&amp;","&amp;TEXT(C7,"@")</f>
+      <c r="AH9" s="3"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="3"/>
+      <c r="C10" s="32" t="str">
+        <f>TEXT(C7,"@")&amp;","&amp;TEXT(D7,"@")</f>
         <v>3010,3159</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27" t="str">
-        <f t="shared" ref="C10:J10" si="10">TEXT(F7,"@")&amp;","&amp;TEXT(G7,"@")</f>
+      <c r="D10" s="33"/>
+      <c r="E10" s="32" t="str">
+        <f t="shared" ref="E10" si="10">TEXT(E7,"@")&amp;","&amp;TEXT(F7,"@")</f>
+        <v>3000,3000</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="32" t="str">
+        <f t="shared" ref="G10:K10" si="11">TEXT(G7,"@")&amp;","&amp;TEXT(H7,"@")</f>
         <v>3160,3209</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27" t="str">
-        <f t="shared" si="10"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="32" t="str">
+        <f t="shared" ref="I10" si="12">TEXT(I7,"@")&amp;","&amp;TEXT(J7,"@")</f>
+        <v>3000,3000</v>
+      </c>
+      <c r="J10" s="33"/>
+      <c r="K10" s="32" t="str">
+        <f t="shared" si="11"/>
         <v>3210,3359</v>
       </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="5"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="32" t="str">
+        <f t="shared" ref="M10" si="13">TEXT(M7,"@")&amp;","&amp;TEXT(N7,"@")</f>
+        <v>3000,3009</v>
+      </c>
+      <c r="N10" s="33"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="3"/>
+      <c r="P10" s="5"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -1072,35 +1418,38 @@
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
-    </row>
-    <row r="11" spans="1:33">
-      <c r="B11" s="32" t="str">
-        <f>B8&amp;","&amp;B9&amp;","&amp;B10</f>
-        <v>1000,1179,2030,2179,3010,3159</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32" t="str">
-        <f t="shared" ref="C11:J11" si="11">F8&amp;","&amp;F9&amp;","&amp;F10</f>
-        <v>1180,1269,2180,2339,3160,3209</v>
-      </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v>1270,1359,2340,2359,3210,3359</v>
-      </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:33">
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
+      <c r="AH10" s="3"/>
+    </row>
+    <row r="11" spans="1:34" ht="25.8" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="C11" s="30" t="str">
+        <f>C8&amp;","&amp;E8&amp;","&amp;C9&amp;","&amp;E9&amp;","&amp;C10&amp;","&amp;E10</f>
+        <v>1000,1179,1000,1000,2030,2179,2000,2000,3010,3159,3000,3000</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30" t="str">
+        <f t="shared" ref="G11:K11" si="14">G8&amp;","&amp;I8&amp;","&amp;G9&amp;","&amp;I9&amp;","&amp;G10&amp;","&amp;I10</f>
+        <v>1180,1269,1000,1000,2180,2339,2000,2000,3160,3209,3000,3000</v>
+      </c>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30" t="str">
+        <f t="shared" si="14"/>
+        <v>1270,1359,1000,1000,2340,2359,2000,2029,3210,3359,3000,3009</v>
+      </c>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+    </row>
+    <row r="12" spans="1:34" ht="40.799999999999997" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="C12" s="29" t="str">
+        <f>C11&amp;"|"&amp;G11&amp;"|"&amp;K11</f>
+        <v>1000,1179,1000,1000,2030,2179,2000,2000,3010,3159,3000,3000|1180,1269,1000,1000,2180,2339,2000,2000,3160,3209,3000,3000|1270,1359,1000,1000,2340,2359,2000,2029,3210,3359,3000,3009</v>
+      </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
@@ -1108,35 +1457,38 @@
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
-    </row>
-    <row r="13" spans="1:33">
-      <c r="B13" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="1:33">
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
+  <mergeCells count="25">
+    <mergeCell ref="C12:N12"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1144,47 +1496,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:R10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="3">
@@ -1193,38 +1545,38 @@
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="24">
         <v>0</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="24">
         <v>179</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25">
         <v>180</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="25">
         <v>239</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15">
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="24">
         <v>240</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="24">
         <v>299</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15">
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25">
         <v>300</v>
       </c>
-      <c r="P2" s="15">
+      <c r="P2" s="25">
         <v>359</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="3"/>
@@ -1234,21 +1586,33 @@
         <v>1000</v>
       </c>
       <c r="D3" s="15">
-        <f>D2+$B2*$A2</f>
+        <f t="shared" ref="D3:R3" si="0">D2+$B2*$A2</f>
         <v>1179</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="E3" s="15">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F3" s="15">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
       <c r="G3" s="15">
-        <f t="shared" ref="G3:P3" si="0">G2+$B2*$A2</f>
+        <f t="shared" si="0"/>
         <v>1180</v>
       </c>
       <c r="H3" s="15">
         <f t="shared" si="0"/>
         <v>1239</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="I3" s="15">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="J3" s="15">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
       <c r="K3" s="15">
         <f t="shared" si="0"/>
         <v>1240</v>
@@ -1257,8 +1621,14 @@
         <f t="shared" si="0"/>
         <v>1299</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
+      <c r="M3" s="15">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="N3" s="15">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
       <c r="O3" s="15">
         <f t="shared" si="0"/>
         <v>1300</v>
@@ -1267,49 +1637,55 @@
         <f t="shared" si="0"/>
         <v>1359</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
+      <c r="Q3" s="15">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="R3" s="15">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3"/>
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="24">
         <v>30</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="24">
         <v>89</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25">
         <v>90</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="25">
         <v>269</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16">
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="24">
         <v>270</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="24">
         <v>329</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16">
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25">
         <v>330</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="25">
         <v>359</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="25">
         <v>0</v>
       </c>
-      <c r="R4" s="16">
-        <v>30</v>
+      <c r="R4" s="25">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1323,8 +1699,14 @@
         <f t="shared" ref="D5:R5" si="1">D4+$B4*$A2</f>
         <v>2089</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="E5" s="16">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="F5" s="16">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
       <c r="G5" s="16">
         <f t="shared" si="1"/>
         <v>2090</v>
@@ -1333,8 +1715,14 @@
         <f t="shared" si="1"/>
         <v>2269</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="I5" s="16">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="J5" s="16">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
       <c r="K5" s="16">
         <f t="shared" si="1"/>
         <v>2270</v>
@@ -1343,8 +1731,14 @@
         <f t="shared" si="1"/>
         <v>2329</v>
       </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="M5" s="16">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="N5" s="16">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
       <c r="O5" s="16">
         <f t="shared" si="1"/>
         <v>2330</v>
@@ -1359,7 +1753,7 @@
       </c>
       <c r="R5" s="16">
         <f t="shared" si="1"/>
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1367,38 +1761,38 @@
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="24">
         <v>60</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="24">
         <v>119</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1">
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25">
         <v>120</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="25">
         <v>179</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1">
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="24">
         <v>180</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="24">
         <v>359</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1">
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="25">
         <v>0</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="25">
         <v>59</v>
       </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="3"/>
@@ -1408,11 +1802,17 @@
         <v>3060</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:P7" si="2">D6+$B6*$A2</f>
+        <f t="shared" ref="D7:R7" si="2">D6+$B6*$A2</f>
         <v>3119</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
       <c r="G7" s="1">
         <f t="shared" si="2"/>
         <v>3120</v>
@@ -1421,8 +1821,14 @@
         <f t="shared" si="2"/>
         <v>3179</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
       <c r="K7" s="1">
         <f t="shared" si="2"/>
         <v>3180</v>
@@ -1431,8 +1837,14 @@
         <f t="shared" si="2"/>
         <v>3359</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="M7" s="1">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
       <c r="O7" s="1">
         <f t="shared" si="2"/>
         <v>3000</v>
@@ -1441,48 +1853,54 @@
         <f t="shared" si="2"/>
         <v>3059</v>
       </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
+      <c r="Q7" s="1">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="24">
         <v>90</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="24">
         <v>149</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17">
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25">
         <v>150</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="25">
         <v>209</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17">
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="24">
         <v>210</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="24">
         <v>269</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17">
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="25">
         <v>270</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="25">
         <v>359</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="25">
         <v>0</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="25">
         <v>89</v>
       </c>
     </row>
@@ -1497,8 +1915,14 @@
         <f t="shared" ref="D9:R9" si="3">D8+$B8*$A2</f>
         <v>4149</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="E9" s="17">
+        <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
       <c r="G9" s="17">
         <f t="shared" si="3"/>
         <v>4150</v>
@@ -1507,8 +1931,14 @@
         <f t="shared" si="3"/>
         <v>4209</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="I9" s="17">
+        <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
       <c r="K9" s="17">
         <f t="shared" si="3"/>
         <v>4210</v>
@@ -1517,8 +1947,14 @@
         <f t="shared" si="3"/>
         <v>4269</v>
       </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
+      <c r="M9" s="17">
+        <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
+      <c r="N9" s="17">
+        <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
       <c r="O9" s="17">
         <f t="shared" si="3"/>
         <v>4270</v>
@@ -1537,297 +1973,231 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="C10" t="str">
+        <f t="shared" ref="C10:Q10" si="4">TEXT(C3,"@")&amp;","&amp;TEXT(D3,"@")</f>
+        <v>1000,1179</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="4"/>
+        <v>1000,1000</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="4"/>
+        <v>1180,1239</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="4"/>
+        <v>1000,1000</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v>1240,1299</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="4"/>
+        <v>1000,1000</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="4"/>
+        <v>1300,1359</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="4"/>
+        <v>1000,1000</v>
+      </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="C11" t="str">
+        <f t="shared" ref="C11" si="5">TEXT(C5,"@")&amp;","&amp;TEXT(D5,"@")</f>
+        <v>2030,2089</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" ref="E11" si="6">TEXT(E5,"@")&amp;","&amp;TEXT(F5,"@")</f>
+        <v>2000,2000</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" ref="G11" si="7">TEXT(G5,"@")&amp;","&amp;TEXT(H5,"@")</f>
+        <v>2090,2269</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" ref="I11" si="8">TEXT(I5,"@")&amp;","&amp;TEXT(J5,"@")</f>
+        <v>2000,2000</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" ref="K11" si="9">TEXT(K5,"@")&amp;","&amp;TEXT(L5,"@")</f>
+        <v>2270,2329</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" t="str">
+        <f t="shared" ref="M11" si="10">TEXT(M5,"@")&amp;","&amp;TEXT(N5,"@")</f>
+        <v>2000,2000</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" t="str">
+        <f t="shared" ref="O11" si="11">TEXT(O5,"@")&amp;","&amp;TEXT(P5,"@")</f>
+        <v>2330,2359</v>
+      </c>
+      <c r="P11" s="18"/>
+      <c r="Q11" t="str">
+        <f t="shared" ref="Q11" si="12">TEXT(Q5,"@")&amp;","&amp;TEXT(R5,"@")</f>
+        <v>2000,2029</v>
+      </c>
+      <c r="R11" s="9"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
+      <c r="C12" t="str">
+        <f t="shared" ref="C12" si="13">TEXT(C7,"@")&amp;","&amp;TEXT(D7,"@")</f>
+        <v>3060,3119</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" ref="E12" si="14">TEXT(E7,"@")&amp;","&amp;TEXT(F7,"@")</f>
+        <v>3000,3000</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" ref="G12" si="15">TEXT(G7,"@")&amp;","&amp;TEXT(H7,"@")</f>
+        <v>3120,3179</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" ref="I12" si="16">TEXT(I7,"@")&amp;","&amp;TEXT(J7,"@")</f>
+        <v>3000,3000</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" ref="K12" si="17">TEXT(K7,"@")&amp;","&amp;TEXT(L7,"@")</f>
+        <v>3180,3359</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" t="str">
+        <f t="shared" ref="M12" si="18">TEXT(M7,"@")&amp;","&amp;TEXT(N7,"@")</f>
+        <v>3000,3000</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" t="str">
+        <f t="shared" ref="O12" si="19">TEXT(O7,"@")&amp;","&amp;TEXT(P7,"@")</f>
+        <v>3000,3059</v>
+      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" t="str">
+        <f t="shared" ref="Q12" si="20">TEXT(Q7,"@")&amp;","&amp;TEXT(R7,"@")</f>
+        <v>3000,3000</v>
+      </c>
+      <c r="R12" s="9"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="C13" t="str">
+        <f t="shared" ref="C13" si="21">TEXT(C9,"@")&amp;","&amp;TEXT(D9,"@")</f>
+        <v>4090,4149</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" ref="E13" si="22">TEXT(E9,"@")&amp;","&amp;TEXT(F9,"@")</f>
+        <v>4000,4000</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ref="G13" si="23">TEXT(G9,"@")&amp;","&amp;TEXT(H9,"@")</f>
+        <v>4150,4209</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13" si="24">TEXT(I9,"@")&amp;","&amp;TEXT(J9,"@")</f>
+        <v>4000,4000</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" ref="K13" si="25">TEXT(K9,"@")&amp;","&amp;TEXT(L9,"@")</f>
+        <v>4210,4269</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" ref="M13" si="26">TEXT(M9,"@")&amp;","&amp;TEXT(N9,"@")</f>
+        <v>4000,4000</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" ref="O13" si="27">TEXT(O9,"@")&amp;","&amp;TEXT(P9,"@")</f>
+        <v>4270,4359</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" ref="Q13" si="28">TEXT(Q9,"@")&amp;","&amp;TEXT(R9,"@")</f>
+        <v>4000,4089</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="46.2" customHeight="1">
+      <c r="C14" s="29" t="str">
+        <f>C10&amp;","&amp;E10&amp;","&amp;C11&amp;","&amp;E11&amp;","&amp;C12&amp;","&amp;E12&amp;","&amp;C13&amp;","&amp;E13</f>
+        <v>1000,1179,1000,1000,2030,2089,2000,2000,3060,3119,3000,3000,4090,4149,4000,4000</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29" t="str">
+        <f t="shared" ref="G14:O14" si="29">G10&amp;","&amp;I10&amp;","&amp;G11&amp;","&amp;I11&amp;","&amp;G12&amp;","&amp;I12&amp;","&amp;G13&amp;","&amp;I13</f>
+        <v>1180,1239,1000,1000,2090,2269,2000,2000,3120,3179,3000,3000,4150,4209,4000,4000</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29" t="str">
+        <f t="shared" si="29"/>
+        <v>1240,1299,1000,1000,2270,2329,2000,2000,3180,3359,3000,3000,4210,4269,4000,4000</v>
+      </c>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29" t="str">
+        <f t="shared" si="29"/>
+        <v>1300,1359,1000,1000,2330,2359,2000,2029,3000,3059,3000,3000,4270,4359,4000,4089</v>
+      </c>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+    </row>
+    <row r="15" spans="1:18" ht="48" customHeight="1">
+      <c r="C15" s="29" t="str">
+        <f>C14&amp;"|"&amp;G14&amp;"|"&amp;K14&amp;"|"&amp;O14</f>
+        <v>1000,1179,1000,1000,2030,2089,2000,2000,3060,3119,3000,3000,4090,4149,4000,4000|1180,1239,1000,1000,2090,2269,2000,2000,3120,3179,3000,3000,4150,4209,4000,4000|1240,1299,1000,1000,2270,2329,2000,2000,3180,3359,3000,3000,4210,4269,4000,4000|1300,1359,1000,1000,2330,2359,2000,2029,3000,3059,3000,3000,4270,4359,4000,4089</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="25" t="s">
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25" t="s">
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="17">
-        <v>0</v>
-      </c>
-      <c r="D15" s="17">
-        <v>179</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17">
-        <v>180</v>
-      </c>
-      <c r="H15" s="17">
-        <v>359</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="18">
-        <f>C15+$A15*$B15</f>
-        <v>1000</v>
-      </c>
-      <c r="D16" s="18">
-        <f t="shared" ref="D16:H16" si="4">D15+$A15*$B15</f>
-        <v>1179</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18">
-        <f t="shared" si="4"/>
-        <v>1180</v>
-      </c>
-      <c r="H16" s="18">
-        <f t="shared" si="4"/>
-        <v>1359</v>
-      </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8">
-        <v>2</v>
-      </c>
-      <c r="C17" s="21">
-        <v>0</v>
-      </c>
-      <c r="D17" s="21">
-        <v>179</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21">
-        <v>180</v>
-      </c>
-      <c r="H17" s="21">
-        <v>359</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="21">
-        <f>C17+$B17*$A15</f>
-        <v>2000</v>
-      </c>
-      <c r="D18" s="21">
-        <f t="shared" ref="D18:H18" si="5">D17+$B17*$A15</f>
-        <v>2179</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21">
-        <f t="shared" si="5"/>
-        <v>2180</v>
-      </c>
-      <c r="H18" s="21">
-        <f t="shared" si="5"/>
-        <v>2359</v>
-      </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="26" t="s">
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A20:R20"/>
+  <mergeCells count="9">
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="C15:R15"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
-    <mergeCell ref="A10:R10"/>
-    <mergeCell ref="A11:R11"/>
-    <mergeCell ref="A12:R12"/>
-    <mergeCell ref="A13:R13"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="G14:J14"/>
-    <mergeCell ref="A19:R19"/>
+    <mergeCell ref="K14:N14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BaroAngEditor/BaroAngEditor/mods/正则.xlsx
+++ b/BaroAngEditor/BaroAngEditor/mods/正则.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>step</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>^(13[0-5][0-9]|23[3-5][0-9]|20[0-2][0-9]|30[0-5][0-9]|42[7-9][0-9]|43[0-5][0-9]|40[0-8][0-9])$</t>
+  </si>
+  <si>
+    <t>^(3[6-9][0-9]|4[0-9][0-9]|5[0-3][0-9]|7[2-9][0-9]|8[0-9][0-9])$</t>
+  </si>
+  <si>
+    <t>^(5[4-9][0-9]|6[0-9][0-9]|7[0-1][0-9]|9[0-9][0-9]|10[0-7][0-9])$</t>
   </si>
 </sst>
 </file>
@@ -354,16 +360,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -649,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -679,7 +685,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -708,35 +714,35 @@
       <c r="B3" s="8"/>
       <c r="C3" s="22">
         <f>C2+$A2*$B2</f>
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="D3" s="22">
         <f t="shared" ref="D3:J3" si="0">D2+$A2*$B2</f>
-        <v>1179</v>
+        <v>539</v>
       </c>
       <c r="E3" s="22">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="F3" s="22">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="G3" s="22">
         <f t="shared" si="0"/>
-        <v>1180</v>
+        <v>540</v>
       </c>
       <c r="H3" s="22">
         <f t="shared" si="0"/>
-        <v>1359</v>
+        <v>719</v>
       </c>
       <c r="I3" s="22">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="J3" s="22">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -768,77 +774,77 @@
       <c r="B5" s="8"/>
       <c r="C5" s="23">
         <f>C4+$B4*$A2</f>
-        <v>2000</v>
+        <v>720</v>
       </c>
       <c r="D5" s="23">
         <f t="shared" ref="D5:J5" si="1">D4+$B4*$A2</f>
-        <v>2179</v>
+        <v>899</v>
       </c>
       <c r="E5" s="23">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>720</v>
       </c>
       <c r="F5" s="23">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>720</v>
       </c>
       <c r="G5" s="23">
         <f t="shared" si="1"/>
-        <v>2180</v>
+        <v>900</v>
       </c>
       <c r="H5" s="23">
         <f t="shared" si="1"/>
-        <v>2359</v>
+        <v>1079</v>
       </c>
       <c r="I5" s="23">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>720</v>
       </c>
       <c r="J5" s="23">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>720</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="C6" t="str">
         <f t="shared" ref="C6:I6" si="2">TEXT(C3,"@")&amp;","&amp;TEXT(D3,"@")</f>
-        <v>1000,1179</v>
+        <v>360,539</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="2"/>
-        <v>1000,1000</v>
+        <v>360,360</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="2"/>
-        <v>1180,1359</v>
+        <v>540,719</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="2"/>
-        <v>1000,1000</v>
+        <v>360,360</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" t="str">
         <f t="shared" ref="C7:I7" si="3">TEXT(C5,"@")&amp;","&amp;TEXT(D5,"@")</f>
-        <v>2000,2179</v>
+        <v>720,899</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="3"/>
-        <v>2000,2000</v>
+        <v>720,720</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="3"/>
-        <v>2180,2359</v>
+        <v>900,1079</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="3"/>
-        <v>2000,2000</v>
+        <v>720,720</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.799999999999997" customHeight="1">
       <c r="C8" s="29" t="str">
         <f>C6&amp;","&amp;E6&amp;","&amp;C7&amp;","&amp;E7&amp;"|"&amp;G6&amp;","&amp;I6&amp;","&amp;G7&amp;","&amp;I7</f>
-        <v>1000,1179,1000,1000,2000,2179,2000,2000|1180,1359,1000,1000,2180,2359,2000,2000</v>
+        <v>360,539,360,360,720,899,720,720|540,719,360,360,900,1079,720,720</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -856,6 +862,16 @@
     <row r="13" spans="1:10">
       <c r="C13" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -866,6 +882,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -890,18 +907,18 @@
       <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="34" t="s">
         <v>6</v>
       </c>
@@ -1263,36 +1280,36 @@
     <row r="8" spans="1:34">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="32" t="str">
+      <c r="C8" s="30" t="str">
         <f>TEXT(C3,"@")&amp;","&amp;TEXT(D3,"@")</f>
         <v>1000,1179</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="32" t="str">
+      <c r="D8" s="31"/>
+      <c r="E8" s="30" t="str">
         <f t="shared" ref="E8" si="3">TEXT(E3,"@")&amp;","&amp;TEXT(F3,"@")</f>
         <v>1000,1000</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="32" t="str">
+      <c r="F8" s="31"/>
+      <c r="G8" s="30" t="str">
         <f t="shared" ref="G8:K8" si="4">TEXT(G3,"@")&amp;","&amp;TEXT(H3,"@")</f>
         <v>1180,1269</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="32" t="str">
+      <c r="H8" s="31"/>
+      <c r="I8" s="30" t="str">
         <f t="shared" ref="I8" si="5">TEXT(I3,"@")&amp;","&amp;TEXT(J3,"@")</f>
         <v>1000,1000</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="32" t="str">
+      <c r="J8" s="31"/>
+      <c r="K8" s="30" t="str">
         <f t="shared" si="4"/>
         <v>1270,1359</v>
       </c>
-      <c r="L8" s="33"/>
-      <c r="M8" s="32" t="str">
+      <c r="L8" s="31"/>
+      <c r="M8" s="30" t="str">
         <f>TEXT(M3,"@")&amp;","&amp;TEXT(N3,"@")</f>
         <v>1000,1000</v>
       </c>
-      <c r="N8" s="33"/>
+      <c r="N8" s="31"/>
       <c r="O8" s="7"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -1316,36 +1333,36 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="3"/>
-      <c r="C9" s="32" t="str">
+      <c r="C9" s="30" t="str">
         <f>TEXT(C5,"@")&amp;","&amp;TEXT(D5,"@")</f>
         <v>2030,2179</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="32" t="str">
+      <c r="D9" s="31"/>
+      <c r="E9" s="30" t="str">
         <f t="shared" ref="E9" si="6">TEXT(E5,"@")&amp;","&amp;TEXT(F5,"@")</f>
         <v>2000,2000</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="32" t="str">
+      <c r="F9" s="31"/>
+      <c r="G9" s="30" t="str">
         <f t="shared" ref="G9:K9" si="7">TEXT(G5,"@")&amp;","&amp;TEXT(H5,"@")</f>
         <v>2180,2339</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="32" t="str">
+      <c r="H9" s="31"/>
+      <c r="I9" s="30" t="str">
         <f t="shared" ref="I9" si="8">TEXT(I5,"@")&amp;","&amp;TEXT(J5,"@")</f>
         <v>2000,2000</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="32" t="str">
+      <c r="J9" s="31"/>
+      <c r="K9" s="30" t="str">
         <f t="shared" si="7"/>
         <v>2340,2359</v>
       </c>
-      <c r="L9" s="33"/>
-      <c r="M9" s="32" t="str">
+      <c r="L9" s="31"/>
+      <c r="M9" s="30" t="str">
         <f t="shared" ref="M9" si="9">TEXT(M5,"@")&amp;","&amp;TEXT(N5,"@")</f>
         <v>2000,2029</v>
       </c>
-      <c r="N9" s="33"/>
+      <c r="N9" s="31"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="3"/>
@@ -1369,36 +1386,36 @@
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="3"/>
-      <c r="C10" s="32" t="str">
+      <c r="C10" s="30" t="str">
         <f>TEXT(C7,"@")&amp;","&amp;TEXT(D7,"@")</f>
         <v>3010,3159</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="32" t="str">
+      <c r="D10" s="31"/>
+      <c r="E10" s="30" t="str">
         <f t="shared" ref="E10" si="10">TEXT(E7,"@")&amp;","&amp;TEXT(F7,"@")</f>
         <v>3000,3000</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="32" t="str">
+      <c r="F10" s="31"/>
+      <c r="G10" s="30" t="str">
         <f t="shared" ref="G10:K10" si="11">TEXT(G7,"@")&amp;","&amp;TEXT(H7,"@")</f>
         <v>3160,3209</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="32" t="str">
+      <c r="H10" s="31"/>
+      <c r="I10" s="30" t="str">
         <f t="shared" ref="I10" si="12">TEXT(I7,"@")&amp;","&amp;TEXT(J7,"@")</f>
         <v>3000,3000</v>
       </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="32" t="str">
+      <c r="J10" s="31"/>
+      <c r="K10" s="30" t="str">
         <f t="shared" si="11"/>
         <v>3210,3359</v>
       </c>
-      <c r="L10" s="33"/>
-      <c r="M10" s="32" t="str">
+      <c r="L10" s="31"/>
+      <c r="M10" s="30" t="str">
         <f t="shared" ref="M10" si="13">TEXT(M7,"@")&amp;","&amp;TEXT(N7,"@")</f>
         <v>3000,3009</v>
       </c>
-      <c r="N10" s="33"/>
+      <c r="N10" s="31"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="3"/>
@@ -1422,27 +1439,27 @@
     </row>
     <row r="11" spans="1:34" ht="25.8" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="C11" s="30" t="str">
+      <c r="C11" s="32" t="str">
         <f>C8&amp;","&amp;E8&amp;","&amp;C9&amp;","&amp;E9&amp;","&amp;C10&amp;","&amp;E10</f>
         <v>1000,1179,1000,1000,2030,2179,2000,2000,3010,3159,3000,3000</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30" t="str">
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32" t="str">
         <f t="shared" ref="G11:K11" si="14">G8&amp;","&amp;I8&amp;","&amp;G9&amp;","&amp;I9&amp;","&amp;G10&amp;","&amp;I10</f>
         <v>1180,1269,1000,1000,2180,2339,2000,2000,3160,3209,3000,3000</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30" t="str">
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32" t="str">
         <f t="shared" si="14"/>
         <v>1270,1359,1000,1000,2340,2359,2000,2029,3210,3359,3000,3009</v>
       </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
     </row>
     <row r="12" spans="1:34" ht="40.799999999999997" customHeight="1">
       <c r="A12" s="3"/>
@@ -1464,6 +1481,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
     <mergeCell ref="C12:N12"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
@@ -1480,15 +1506,6 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
